--- a/整合結果/EPU匯出結果/2025-06-03/2025-06-03_自由時報_EPU檢查結果.xlsx
+++ b/整合結果/EPU匯出結果/2025-06-03/2025-06-03_自由時報_EPU檢查結果.xlsx
@@ -168,12 +168,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$8:$A$9</f>
+              <f>'Sheet1'!$A$12:$A$13</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$8:$B$9</f>
+              <f>'Sheet1'!$B$12:$B$13</f>
             </numRef>
           </val>
         </ser>
@@ -249,7 +249,7 @@
     <from>
       <col>3</col>
       <colOff>0</colOff>
-      <row>7</row>
+      <row>11</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -559,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,40 +747,183 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-06-03_0730_自由時報_財經_離婚時給付財產或贍養費 這種情況免課贈與稅.txt</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>經濟</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>課稅</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>統計摘要</t>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-06-03_0853_自由時報_財經_黃金大漲！登3週多來高點.txt</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>美元、貿易、經濟</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fed、央行、降息、聯準會、關稅提高</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>不確定、不確定性、地緣政治、波動、政治風險、貿易緊張、貿易緊張局勢、緊張、擔憂</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>✔ 符合 EPU</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-06-03_0919_自由時報_財經_境外基金龍虎榜 無懼震盪淬鍊 這檔基金今年來績效大漲62％奪冠.txt</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>美元、經濟</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fed、央行、利率會議、殖利率、聯準會、川普關稅</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>不確定、不確定性、反彈、地緣政治、地緣政治緊張、波動、疲軟、通膨、緊張</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-06-03_1245_自由時報_財經_信用管制強碰交屋潮 去年Q4六都房貸件數、成數同步下滑.txt</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>不動產、不動產業、房市、房貸、經濟</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>央行、房貸利率、信用管制、基準利率、新青安、選擇性信用管制</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>干擾、窘境、難以扭轉</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>統計摘要</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>✔ 符合 EPU</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>✘ 不符合 EPU</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>EPU 比例</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>75.0%</t>
         </is>
